--- a/data/key_item_types.xlsx
+++ b/data/key_item_types.xlsx
@@ -288,11 +288,17 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>

--- a/data/key_item_types.xlsx
+++ b/data/key_item_types.xlsx
@@ -288,17 +288,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>2.0</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
